--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cck</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6061876666666667</v>
+        <v>0.857847</v>
       </c>
       <c r="H2">
-        <v>1.818563</v>
+        <v>2.573541</v>
       </c>
       <c r="I2">
-        <v>0.1451961577245912</v>
+        <v>0.1498657082557423</v>
       </c>
       <c r="J2">
-        <v>0.1451961577245912</v>
+        <v>0.1498657082557423</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +561,22 @@
         <v>0.51415</v>
       </c>
       <c r="O2">
-        <v>0.8297466137978559</v>
+        <v>0.4272957328601764</v>
       </c>
       <c r="P2">
-        <v>0.8297466137978557</v>
+        <v>0.4272957328601762</v>
       </c>
       <c r="Q2">
-        <v>0.1038904629388889</v>
+        <v>0.14702067835</v>
       </c>
       <c r="R2">
-        <v>0.93501416645</v>
+        <v>1.32318610515</v>
       </c>
       <c r="S2">
-        <v>0.1204760202084389</v>
+        <v>0.06403697763974681</v>
       </c>
       <c r="T2">
-        <v>0.1204760202084389</v>
+        <v>0.06403697763974678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.857847</v>
+      </c>
+      <c r="H3">
+        <v>2.573541</v>
+      </c>
+      <c r="I3">
+        <v>0.1498657082557423</v>
+      </c>
+      <c r="J3">
+        <v>0.1498657082557423</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.6061876666666667</v>
-      </c>
-      <c r="H3">
-        <v>1.818563</v>
-      </c>
-      <c r="I3">
-        <v>0.1451961577245912</v>
-      </c>
-      <c r="J3">
-        <v>0.1451961577245912</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.03516566666666667</v>
+        <v>0.229705</v>
       </c>
       <c r="N3">
-        <v>0.105497</v>
+        <v>0.6891149999999999</v>
       </c>
       <c r="O3">
-        <v>0.1702533862021441</v>
+        <v>0.5727042671398237</v>
       </c>
       <c r="P3">
-        <v>0.1702533862021441</v>
+        <v>0.5727042671398237</v>
       </c>
       <c r="Q3">
-        <v>0.02131699342344445</v>
+        <v>0.197051745135</v>
       </c>
       <c r="R3">
-        <v>0.191852940811</v>
+        <v>1.773465706215</v>
       </c>
       <c r="S3">
-        <v>0.02472013751615225</v>
+        <v>0.08582873061599554</v>
       </c>
       <c r="T3">
-        <v>0.02472013751615225</v>
+        <v>0.08582873061599554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,13 +664,13 @@
         <v>2.378641333333333</v>
       </c>
       <c r="H4">
-        <v>7.135923999999999</v>
+        <v>7.135924</v>
       </c>
       <c r="I4">
-        <v>0.5697403645706501</v>
+        <v>0.4155481899527343</v>
       </c>
       <c r="J4">
-        <v>0.5697403645706501</v>
+        <v>0.4155481899527343</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +685,10 @@
         <v>0.51415</v>
       </c>
       <c r="O4">
-        <v>0.8297466137978559</v>
+        <v>0.4272957328601764</v>
       </c>
       <c r="P4">
-        <v>0.8297466137978557</v>
+        <v>0.4272957328601762</v>
       </c>
       <c r="Q4">
         <v>0.4076594805111111</v>
@@ -694,10 +697,10 @@
         <v>3.6689353246</v>
       </c>
       <c r="S4">
-        <v>0.4727401382464528</v>
+        <v>0.1775619683645734</v>
       </c>
       <c r="T4">
-        <v>0.4727401382464528</v>
+        <v>0.1775619683645733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -723,43 +726,43 @@
         <v>2.378641333333333</v>
       </c>
       <c r="H5">
-        <v>7.135923999999999</v>
+        <v>7.135924</v>
       </c>
       <c r="I5">
-        <v>0.5697403645706501</v>
+        <v>0.4155481899527343</v>
       </c>
       <c r="J5">
-        <v>0.5697403645706501</v>
+        <v>0.4155481899527343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03516566666666667</v>
+        <v>0.229705</v>
       </c>
       <c r="N5">
-        <v>0.105497</v>
+        <v>0.6891149999999999</v>
       </c>
       <c r="O5">
-        <v>0.1702533862021441</v>
+        <v>0.5727042671398237</v>
       </c>
       <c r="P5">
-        <v>0.1702533862021441</v>
+        <v>0.5727042671398237</v>
       </c>
       <c r="Q5">
-        <v>0.08364650824755555</v>
+        <v>0.5463858074733332</v>
       </c>
       <c r="R5">
-        <v>0.752818574228</v>
+        <v>4.91747226726</v>
       </c>
       <c r="S5">
-        <v>0.0970002263241973</v>
+        <v>0.237986221588161</v>
       </c>
       <c r="T5">
-        <v>0.09700022632419729</v>
+        <v>0.2379862215881609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.190127666666667</v>
+        <v>2.389512333333334</v>
       </c>
       <c r="H6">
-        <v>3.570383</v>
+        <v>7.168537000000001</v>
       </c>
       <c r="I6">
-        <v>0.2850634777047586</v>
+        <v>0.4174473515916376</v>
       </c>
       <c r="J6">
-        <v>0.2850634777047586</v>
+        <v>0.4174473515916375</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +809,22 @@
         <v>0.51415</v>
       </c>
       <c r="O6">
-        <v>0.8297466137978559</v>
+        <v>0.4272957328601764</v>
       </c>
       <c r="P6">
-        <v>0.8297466137978557</v>
+        <v>0.4272957328601762</v>
       </c>
       <c r="Q6">
-        <v>0.2039680466055556</v>
+        <v>0.4095225887277779</v>
       </c>
       <c r="R6">
-        <v>1.83571241945</v>
+        <v>3.68570329855</v>
       </c>
       <c r="S6">
-        <v>0.236530455342964</v>
+        <v>0.1783734720288885</v>
       </c>
       <c r="T6">
-        <v>0.236530455342964</v>
+        <v>0.1783734720288884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -844,46 +847,170 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.190127666666667</v>
+        <v>2.389512333333334</v>
       </c>
       <c r="H7">
-        <v>3.570383</v>
+        <v>7.168537000000001</v>
       </c>
       <c r="I7">
-        <v>0.2850634777047586</v>
+        <v>0.4174473515916376</v>
       </c>
       <c r="J7">
-        <v>0.2850634777047586</v>
+        <v>0.4174473515916375</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.229705</v>
+      </c>
+      <c r="N7">
+        <v>0.6891149999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.5727042671398237</v>
+      </c>
+      <c r="P7">
+        <v>0.5727042671398237</v>
+      </c>
+      <c r="Q7">
+        <v>0.5488829305283334</v>
+      </c>
+      <c r="R7">
+        <v>4.939946374754999</v>
+      </c>
+      <c r="S7">
+        <v>0.2390738795627491</v>
+      </c>
+      <c r="T7">
+        <v>0.2390738795627491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.03516566666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.105497</v>
-      </c>
-      <c r="O7">
-        <v>0.1702533862021441</v>
-      </c>
-      <c r="P7">
-        <v>0.1702533862021441</v>
-      </c>
-      <c r="Q7">
-        <v>0.04185163281677778</v>
-      </c>
-      <c r="R7">
-        <v>0.3766646953510001</v>
-      </c>
-      <c r="S7">
-        <v>0.04853302236179457</v>
-      </c>
-      <c r="T7">
-        <v>0.04853302236179456</v>
+      <c r="G8">
+        <v>0.09810400000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.294312</v>
+      </c>
+      <c r="I8">
+        <v>0.0171387501998857</v>
+      </c>
+      <c r="J8">
+        <v>0.0171387501998857</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1713833333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.51415</v>
+      </c>
+      <c r="O8">
+        <v>0.4272957328601764</v>
+      </c>
+      <c r="P8">
+        <v>0.4272957328601762</v>
+      </c>
+      <c r="Q8">
+        <v>0.01681339053333333</v>
+      </c>
+      <c r="R8">
+        <v>0.1513205148</v>
+      </c>
+      <c r="S8">
+        <v>0.007323314826967654</v>
+      </c>
+      <c r="T8">
+        <v>0.007323314826967651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09810400000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.294312</v>
+      </c>
+      <c r="I9">
+        <v>0.0171387501998857</v>
+      </c>
+      <c r="J9">
+        <v>0.0171387501998857</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.229705</v>
+      </c>
+      <c r="N9">
+        <v>0.6891149999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.5727042671398237</v>
+      </c>
+      <c r="P9">
+        <v>0.5727042671398237</v>
+      </c>
+      <c r="Q9">
+        <v>0.02253497932</v>
+      </c>
+      <c r="R9">
+        <v>0.20281481388</v>
+      </c>
+      <c r="S9">
+        <v>0.009815435372918046</v>
+      </c>
+      <c r="T9">
+        <v>0.009815435372918044</v>
       </c>
     </row>
   </sheetData>
